--- a/data/mots.xlsx
+++ b/data/mots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alainquartierlatente/Desktop/Ensae/Ensae/Chinois/QuizChinois/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0B5781-ED0B-B64A-86AC-DD251C517A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745A27BE-A777-0D45-9993-9315981380CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="460" windowWidth="18060" windowHeight="16520" xr2:uid="{24ECF880-12C5-6A48-8924-2BDD99C8B896}"/>
   </bookViews>
@@ -1151,7 +1151,7 @@
     <t>lǎoshī</t>
   </si>
   <si>
-    <t>Professeur (Vieux + Division-</t>
+    <t>Professeur (Vieux + Division)</t>
   </si>
 </sst>
 </file>
@@ -1175,16 +1175,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1259,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1274,6 +1275,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1592,24 +1596,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA958D13-62F1-E346-89F3-67130DFFF23C}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3099,7 +3103,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>97</v>
       </c>
